--- a/Nomina/Info.xlsx
+++ b/Nomina/Info.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Documents\GitHub\Problem_Set_1\ForeverChic\Nomina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3554ED-3046-4F2E-B23A-46874D185869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9A04CE-8979-4403-9789-870B09554744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E10BBF24-8B64-47E0-9392-E6A1EA239C1A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{E10BBF24-8B64-47E0-9392-E6A1EA239C1A}"/>
   </bookViews>
   <sheets>
     <sheet name="0. Porcentaje" sheetId="1" r:id="rId1"/>
     <sheet name="0. Verificador" sheetId="3" r:id="rId2"/>
-    <sheet name="1. Tocador" sheetId="2" r:id="rId3"/>
-    <sheet name="2. Spa" sheetId="4" r:id="rId4"/>
-    <sheet name="3. Depilacion" sheetId="5" r:id="rId5"/>
-    <sheet name="4. Bac" sheetId="6" r:id="rId6"/>
-    <sheet name="5. Colorimetria" sheetId="7" r:id="rId7"/>
-    <sheet name="6. Venta" sheetId="8" r:id="rId8"/>
-    <sheet name="7. Maquillaje" sheetId="9" r:id="rId9"/>
+    <sheet name="0. Profesionales" sheetId="10" r:id="rId3"/>
+    <sheet name="1. Tocador" sheetId="2" r:id="rId4"/>
+    <sheet name="2. Spa" sheetId="4" r:id="rId5"/>
+    <sheet name="3. Depilacion" sheetId="5" r:id="rId6"/>
+    <sheet name="4. Bac" sheetId="6" r:id="rId7"/>
+    <sheet name="5. Colorimetria" sheetId="7" r:id="rId8"/>
+    <sheet name="6. Venta" sheetId="8" r:id="rId9"/>
+    <sheet name="7. Maquillaje" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="96">
   <si>
     <t>Alianzas de Marketing</t>
   </si>
@@ -288,6 +289,48 @@
   </si>
   <si>
     <t>Vericador</t>
+  </si>
+  <si>
+    <t>Profesional</t>
+  </si>
+  <si>
+    <t>Marinela Olaya</t>
+  </si>
+  <si>
+    <t>Olga Arango</t>
+  </si>
+  <si>
+    <t>Nydia Gamba</t>
+  </si>
+  <si>
+    <t>Nataly Caro</t>
+  </si>
+  <si>
+    <t>Paola Pinzon</t>
+  </si>
+  <si>
+    <t>Jose Vicente Molina" Elvis"</t>
+  </si>
+  <si>
+    <t>Johanna Jinely Quimbay Perez</t>
+  </si>
+  <si>
+    <t>Olga Arango Aristizábal</t>
+  </si>
+  <si>
+    <t>Marinela Olaya Cifuentes</t>
+  </si>
+  <si>
+    <t>Johana Matute</t>
+  </si>
+  <si>
+    <t>Beto Garcia</t>
+  </si>
+  <si>
+    <t>Johana Quimbay</t>
+  </si>
+  <si>
+    <t>Ivonne Mancipe</t>
   </si>
 </sst>
 </file>
@@ -375,7 +418,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="39">
     <dxf>
       <font>
         <strike val="0"/>
@@ -589,6 +632,49 @@
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -938,43 +1024,53 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{145CCECE-3068-465E-9531-D20A4636B54F}" name="Tabla3" displayName="Tabla3" ref="A1:B12" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{145CCECE-3068-465E-9531-D20A4636B54F}" name="Tabla3" displayName="Tabla3" ref="A1:B12" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
   <autoFilter ref="A1:B12" xr:uid="{145CCECE-3068-465E-9531-D20A4636B54F}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{BF6E6B0F-91F1-4FB1-B14A-0F44F6E236BA}" name="Tipo" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{E86FFF60-E7CE-4008-AC4F-0F6F057FF058}" name="Porcentaje" dataDxfId="32" dataCellStyle="Porcentaje"/>
+    <tableColumn id="1" xr3:uid="{BF6E6B0F-91F1-4FB1-B14A-0F44F6E236BA}" name="Tipo" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{E86FFF60-E7CE-4008-AC4F-0F6F057FF058}" name="Porcentaje" dataDxfId="35" dataCellStyle="Porcentaje"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{7078223E-2CA2-4886-AAC7-7593F378EE8C}" name="Tabla11" displayName="Tabla11" ref="A1:A2" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="A1:A2" xr:uid="{7078223E-2CA2-4886-AAC7-7593F378EE8C}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{2A377931-5BF1-45D1-B1D6-E5A543AFA247}" name="Servicio" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{E5B4A5EC-23CC-4AAF-BBA4-AA33F630A4B6}" name="Tabla12" displayName="Tabla12" ref="B2:J62" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{E5B4A5EC-23CC-4AAF-BBA4-AA33F630A4B6}" name="Tabla12" displayName="Tabla12" ref="B2:J62" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="B2:J62" xr:uid="{E5B4A5EC-23CC-4AAF-BBA4-AA33F630A4B6}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{0AE342CE-E699-4674-A921-02F9F207D78B}" name="Servicio" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{419527B9-DDA5-4A0B-905E-3A831C54499E}" name="1. Tocador" dataDxfId="28">
+    <tableColumn id="1" xr3:uid="{0AE342CE-E699-4674-A921-02F9F207D78B}" name="Servicio" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{419527B9-DDA5-4A0B-905E-3A831C54499E}" name="1. Tocador" dataDxfId="31">
       <calculatedColumnFormula>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{99DC3151-6C30-444A-BA5C-53DB38CD220F}" name="2. Spa" dataDxfId="27">
+    <tableColumn id="3" xr3:uid="{99DC3151-6C30-444A-BA5C-53DB38CD220F}" name="2. Spa" dataDxfId="30">
       <calculatedColumnFormula>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BA3838B7-7F09-4EFB-9D32-BB9DFD02D26F}" name="3. Depilacion" dataDxfId="26">
+    <tableColumn id="4" xr3:uid="{BA3838B7-7F09-4EFB-9D32-BB9DFD02D26F}" name="3. Depilacion" dataDxfId="29">
       <calculatedColumnFormula>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5A247591-A58E-4EC6-AC99-2ADC27E4872C}" name="4. Bac" dataDxfId="25">
+    <tableColumn id="5" xr3:uid="{5A247591-A58E-4EC6-AC99-2ADC27E4872C}" name="4. Bac" dataDxfId="28">
       <calculatedColumnFormula>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{E1532FE0-39AB-4F45-81F6-CFEF920628FE}" name="5. Colorimetria" dataDxfId="24">
+    <tableColumn id="6" xr3:uid="{E1532FE0-39AB-4F45-81F6-CFEF920628FE}" name="5. Colorimetria" dataDxfId="27">
       <calculatedColumnFormula>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{16A474C9-BB75-4268-AE3E-3C3DEB67229E}" name="6. Venta" dataDxfId="23">
+    <tableColumn id="7" xr3:uid="{16A474C9-BB75-4268-AE3E-3C3DEB67229E}" name="6. Venta" dataDxfId="26">
       <calculatedColumnFormula>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{3CF11973-154C-4E96-82A9-31E0B527D076}" name="7. Maquillaje" dataDxfId="22">
+    <tableColumn id="8" xr3:uid="{3CF11973-154C-4E96-82A9-31E0B527D076}" name="7. Maquillaje" dataDxfId="25">
       <calculatedColumnFormula>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{7C405853-C47F-4C20-8EE1-68C01368E1B6}" name="Vericador" dataDxfId="21">
+    <tableColumn id="9" xr3:uid="{7C405853-C47F-4C20-8EE1-68C01368E1B6}" name="Vericador" dataDxfId="24">
       <calculatedColumnFormula>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[7. Maquillaje]])=1,"","❎")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -983,6 +1079,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D8A17379-BA46-4212-9EC9-9D0965690188}" name="Tabla1" displayName="Tabla1" ref="A1:A15" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="A1:A15" xr:uid="{D8A17379-BA46-4212-9EC9-9D0965690188}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{DDDF52DE-A7F5-4918-BAE0-228DFC5015C3}" name="Profesional" dataDxfId="21"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{513E435A-5C6B-4ABF-A51B-E8068E26EF98}" name="Tabla4" displayName="Tabla4" ref="A1:A14" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:A14" xr:uid="{513E435A-5C6B-4ABF-A51B-E8068E26EF98}"/>
   <tableColumns count="1">
@@ -992,7 +1098,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C36286FF-86AB-4AAB-8D61-71004096C9F8}" name="Tabla5" displayName="Tabla5" ref="A1:A23" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:A23" xr:uid="{C36286FF-86AB-4AAB-8D61-71004096C9F8}"/>
   <tableColumns count="1">
@@ -1002,7 +1108,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F6449331-C52F-4026-92D6-8ADA6C558F5A}" name="Tabla6" displayName="Tabla6" ref="A1:A6" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A1:A6" xr:uid="{F6449331-C52F-4026-92D6-8ADA6C558F5A}"/>
   <tableColumns count="1">
@@ -1012,7 +1118,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{06E35A94-D4F4-436E-B9A2-20D1777EE85D}" name="Tabla8" displayName="Tabla8" ref="A1:A40" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:A40" xr:uid="{06E35A94-D4F4-436E-B9A2-20D1777EE85D}"/>
   <tableColumns count="1">
@@ -1022,7 +1128,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{8F17279D-8BB3-4F47-BDA2-D4B0B503999D}" name="Tabla9" displayName="Tabla9" ref="A1:A4" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:A4" xr:uid="{8F17279D-8BB3-4F47-BDA2-D4B0B503999D}"/>
   <tableColumns count="1">
@@ -1032,21 +1138,11 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{4BF8DC9D-BBFD-4565-9457-5C2CBB709635}" name="Tabla10" displayName="Tabla10" ref="A1:A7" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A1:A7" xr:uid="{4BF8DC9D-BBFD-4565-9457-5C2CBB709635}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{DB57ABA3-E3AD-4F77-B798-6C0D142D72DC}" name="Servicio" dataDxfId="3"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{7078223E-2CA2-4886-AAC7-7593F378EE8C}" name="Tabla11" displayName="Tabla11" ref="A1:A2" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
-  <autoFilter ref="A1:A2" xr:uid="{7078223E-2CA2-4886-AAC7-7593F378EE8C}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{2A377931-5BF1-45D1-B1D6-E5A543AFA247}" name="Servicio" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1351,7 +1447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BBD850C-BE49-40F9-BCAD-30921064741A}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1456,6 +1552,36 @@
       </c>
       <c r="B12" s="3">
         <v>0.58330000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{352B5C82-ED2C-4989-A979-AC1989CB657D}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -3818,6 +3944,103 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB14EE81-1336-48D1-AF56-B5F648183D15}">
+  <dimension ref="A1:A15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD82325-C883-442E-BAE1-2232B8CCAA6F}">
   <dimension ref="A1:A14"/>
   <sheetViews>
@@ -3907,7 +4130,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2404B588-A5E7-4A4D-862D-34C6987F986E}">
   <dimension ref="A1:A23"/>
   <sheetViews>
@@ -4042,7 +4265,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF576B40-A3A0-4963-907F-D5A9DDD7522F}">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -4092,7 +4315,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5635A02E-CA20-433E-BF86-A0572048DCDB}">
   <dimension ref="A1:A40"/>
   <sheetViews>
@@ -4312,7 +4535,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B6EF07-1B24-43F3-84D1-8FE766884035}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -4352,7 +4575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A6DBDC-6E11-4A4A-8118-90EDBF21AE1E}">
   <dimension ref="A1:A7"/>
   <sheetViews>
@@ -4405,34 +4628,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{352B5C82-ED2C-4989-A979-AC1989CB657D}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/Nomina/Info.xlsx
+++ b/Nomina/Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Documents\GitHub\Problem_Set_1\ForeverChic\Nomina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9A04CE-8979-4403-9789-870B09554744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AEA4EC-6490-4C7F-9311-3E6E0A0F975A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{E10BBF24-8B64-47E0-9392-E6A1EA239C1A}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="97">
   <si>
     <t>Alianzas de Marketing</t>
   </si>
@@ -331,6 +331,9 @@
   </si>
   <si>
     <t>Ivonne Mancipe</t>
+  </si>
+  <si>
+    <t>Ines torres</t>
   </si>
 </sst>
 </file>
@@ -1079,8 +1082,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D8A17379-BA46-4212-9EC9-9D0965690188}" name="Tabla1" displayName="Tabla1" ref="A1:A15" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <autoFilter ref="A1:A15" xr:uid="{D8A17379-BA46-4212-9EC9-9D0965690188}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D8A17379-BA46-4212-9EC9-9D0965690188}" name="Tabla1" displayName="Tabla1" ref="A1:A16" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="A1:A16" xr:uid="{D8A17379-BA46-4212-9EC9-9D0965690188}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{DDDF52DE-A7F5-4918-BAE0-228DFC5015C3}" name="Profesional" dataDxfId="21"/>
   </tableColumns>
@@ -3945,11 +3948,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB14EE81-1336-48D1-AF56-B5F648183D15}">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4030,6 +4031,11 @@
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
